--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.020520.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.020520.xlsx_with_dialog_acts.xlsx
@@ -1147,12 +1147,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1403,12 +1403,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1995,12 +1995,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2625,12 +2625,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4141,12 +4141,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4225,12 +4225,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4645,12 +4645,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4729,12 +4729,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5161,12 +5161,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5413,12 +5413,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5921,12 +5921,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6215,12 +6215,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7815,12 +7815,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7857,12 +7857,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8529,12 +8529,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8949,12 +8949,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9117,12 +9117,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9537,12 +9537,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9621,12 +9621,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10725,12 +10725,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11271,12 +11271,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11439,12 +11439,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11607,12 +11607,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11649,12 +11649,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11817,12 +11817,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11901,12 +11901,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12405,12 +12405,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12867,12 +12867,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13497,12 +13497,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13539,12 +13539,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13665,12 +13665,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13917,12 +13917,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14253,12 +14253,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14295,12 +14295,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14799,12 +14799,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14971,12 +14971,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
